--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ben/Dropbox/eps-1.4.2-canada-wipC/InputData/elec/CCaMC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242585E5-71BA-6242-8B18-33509085540C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14360" windowHeight="12840"/>
+    <workbookView xWindow="-37940" yWindow="460" windowWidth="20240" windowHeight="17700" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
-    <sheet name="EIA Costs" sheetId="10" r:id="rId2"/>
-    <sheet name="Start Year Wind and Solar" sheetId="9" r:id="rId3"/>
-    <sheet name="Coal Cost Multipliers" sheetId="12" r:id="rId4"/>
-    <sheet name="Cost Improvement and Off Wnd" sheetId="15" r:id="rId5"/>
-    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId6"/>
-    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId7"/>
-    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId8"/>
+    <sheet name="Coal-to-gas costs" sheetId="16" r:id="rId2"/>
+    <sheet name="EIA Costs" sheetId="10" r:id="rId3"/>
+    <sheet name="Start Year Wind and Solar" sheetId="9" r:id="rId4"/>
+    <sheet name="Coal Cost Multipliers" sheetId="12" r:id="rId5"/>
+    <sheet name="Cost Improvement and Off Wnd" sheetId="15" r:id="rId6"/>
+    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId7"/>
+    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId8"/>
+    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="USD_to_CAN" localSheetId="1">[1]About!$A$75</definedName>
     <definedName name="USD_to_CAN">About!$A$70</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="335">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -970,20 +981,249 @@
   <si>
     <t>Table 1. Updated estimates of power plant capital and operating costs</t>
   </si>
+  <si>
+    <t>Source: AESO, LTO 2017, https://www.aeso.ca/grid/forecasting/</t>
+  </si>
+  <si>
+    <t>Generation Cost Assumptions</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <r>
+      <t>Combined Cycle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Simple Cycle</t>
+  </si>
+  <si>
+    <t>Coal-to-Gas</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>PV Solar</t>
+  </si>
+  <si>
+    <t>Installed Capacity</t>
+  </si>
+  <si>
+    <t>(MW)</t>
+  </si>
+  <si>
+    <t>368-406</t>
+  </si>
+  <si>
+    <r>
+      <t>Avg. Capacity Factor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>(%)</t>
+  </si>
+  <si>
+    <t>56% - 71%</t>
+  </si>
+  <si>
+    <t>3% - 25%</t>
+  </si>
+  <si>
+    <t>2%-13%</t>
+  </si>
+  <si>
+    <t>33% - 39%</t>
+  </si>
+  <si>
+    <t>16% - 19%</t>
+  </si>
+  <si>
+    <t>Heat Rate</t>
+  </si>
+  <si>
+    <t>(GJ/MWh)</t>
+  </si>
+  <si>
+    <t>10 - 12</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Emissions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>(Tonne/MWh)</t>
+  </si>
+  <si>
+    <t>0.560-0.672</t>
+  </si>
+  <si>
+    <t>Overnight Capital Costs</t>
+  </si>
+  <si>
+    <t>(2017 $Cdn/kW)</t>
+  </si>
+  <si>
+    <t>$1,500 - $1,950</t>
+  </si>
+  <si>
+    <t>$1,000 - $1,500</t>
+  </si>
+  <si>
+    <t>$1,330 - $2,100</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>(2017 $Cdn/kW-yr)</t>
+  </si>
+  <si>
+    <t>Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>(2017 $Cdn/MWh)</t>
+  </si>
+  <si>
+    <r>
+      <t>Natural Gas Price</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>(2017 $Cdn/GJ)</t>
+  </si>
+  <si>
+    <t>$2.61 - $3.49</t>
+  </si>
+  <si>
+    <t>1. 1x1 combined cycle</t>
+  </si>
+  <si>
+    <t>2. Model output by technology over forecast horizon</t>
+  </si>
+  <si>
+    <r>
+      <t>3. Calculated using 56 kg CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/GJ and Heat Rate</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Range represents annual average prices between 2017 to 2039</t>
+  </si>
+  <si>
+    <t>Conversion Rate between 2017 CAD and 2015 CAD</t>
+  </si>
+  <si>
+    <t>Source:</t>
+  </si>
+  <si>
+    <t>https://www.bankofcanada.ca/rates/related/inflation-calculator/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="\$#,##0;\$#,##0"/>
     <numFmt numFmtId="167" formatCode="#,##0;#,##0"/>
     <numFmt numFmtId="168" formatCode="###0;###0"/>
     <numFmt numFmtId="169" formatCode="###0.00;###0.00"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1069,8 +1309,58 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1095,8 +1385,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1253,8 +1549,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
@@ -1293,8 +1682,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1446,22 +1836,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="Body: normal cell" xfId="4"/>
+  <cellStyles count="15">
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: top rows" xfId="10"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="11"/>
+    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Section Break" xfId="12"/>
-    <cellStyle name="Section Break: parent row" xfId="13"/>
-    <cellStyle name="Table title" xfId="1"/>
+    <cellStyle name="Normal 32" xfId="14" xr:uid="{3E3BE207-531A-5B46-A5B8-4CB4C09FC6D5}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1490,7 +1937,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1504,6 +1951,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="EIA Costs"/>
+      <sheetName val="Coal Cost Multipliers"/>
+      <sheetName val="Cost Improvement and Off Wnd"/>
+      <sheetName val="AB Gen and Cap Costs"/>
+      <sheetName val="Cogen"/>
+      <sheetName val="Start Year Wind and Solar"/>
+      <sheetName val="CCaMC-BCCpUC"/>
+      <sheetName val="CCaMC-AFOaMCpUC"/>
+      <sheetName val="CCaMC-VOaMCpUC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="75">
+          <cell r="A75">
+            <v>1.0307117464753801</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1549,7 +2033,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1582,9 +2066,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1617,6 +2118,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1792,39 +2310,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="78.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.7265625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="78.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.6640625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +2357,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +2365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="B7" s="2">
         <v>2015</v>
       </c>
@@ -1853,7 +2373,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>64</v>
       </c>
@@ -1861,7 +2381,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="B9" s="3" t="s">
         <v>63</v>
       </c>
@@ -1869,7 +2389,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>62</v>
       </c>
@@ -1877,11 +2397,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="B11"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="B12" s="6" t="s">
         <v>143</v>
       </c>
@@ -1889,7 +2409,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="B13" s="23" t="s">
         <v>144</v>
       </c>
@@ -1897,7 +2417,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="B14" s="2">
         <v>2009</v>
       </c>
@@ -1905,7 +2425,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="B15" s="2" t="s">
         <v>145</v>
       </c>
@@ -1913,7 +2433,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
         <v>146</v>
       </c>
@@ -1921,7 +2441,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="B17" s="23" t="s">
         <v>147</v>
       </c>
@@ -1929,10 +2449,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="B18" s="23"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
         <v>28</v>
@@ -1941,7 +2461,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>78</v>
@@ -1950,7 +2470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>2015</v>
@@ -1959,7 +2479,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>79</v>
@@ -1968,7 +2488,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="48">
       <c r="A23" s="7"/>
       <c r="B23" s="50" t="s">
         <v>80</v>
@@ -1977,14 +2497,14 @@
         <v>186</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" ht="16" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" ht="16" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="21" t="s">
         <v>29</v>
@@ -1994,50 +2514,50 @@
       </c>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="7"/>
       <c r="D26" s="23"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" s="7"/>
       <c r="B27" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28" s="7"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4">
       <c r="A29" s="7"/>
       <c r="B29" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4">
       <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11">
       <c r="A34" s="7" t="s">
         <v>23</v>
       </c>
@@ -2050,7 +2570,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
         <v>69</v>
       </c>
@@ -2063,7 +2583,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
         <v>86</v>
       </c>
@@ -2076,7 +2596,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
         <v>187</v>
       </c>
@@ -2089,7 +2609,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11">
       <c r="A38" s="10"/>
       <c r="D38" s="7"/>
       <c r="E38" s="11"/>
@@ -2100,7 +2620,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
         <v>70</v>
       </c>
@@ -2113,7 +2633,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
         <v>90</v>
       </c>
@@ -2126,7 +2646,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
         <v>91</v>
       </c>
@@ -2139,7 +2659,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
         <v>71</v>
       </c>
@@ -2152,7 +2672,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11">
       <c r="A43" s="10" t="s">
         <v>72</v>
       </c>
@@ -2165,7 +2685,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11">
       <c r="A44" s="10"/>
       <c r="D44" s="7"/>
       <c r="E44" s="11"/>
@@ -2176,7 +2696,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11">
       <c r="A45" s="10" t="s">
         <v>30</v>
       </c>
@@ -2189,7 +2709,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
         <v>31</v>
       </c>
@@ -2202,7 +2722,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11">
       <c r="A47" s="10"/>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -2213,7 +2733,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11">
       <c r="A48" s="10" t="s">
         <v>87</v>
       </c>
@@ -2226,7 +2746,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
         <v>73</v>
       </c>
@@ -2239,7 +2759,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
         <v>74</v>
       </c>
@@ -2252,7 +2772,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
         <v>75</v>
       </c>
@@ -2265,7 +2785,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
         <v>76</v>
       </c>
@@ -2278,7 +2798,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
         <v>77</v>
       </c>
@@ -2291,7 +2811,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11">
       <c r="A54" s="10"/>
       <c r="D54" s="7"/>
       <c r="E54" s="11"/>
@@ -2302,7 +2822,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
         <v>148</v>
       </c>
@@ -2315,7 +2835,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
         <v>149</v>
       </c>
@@ -2328,7 +2848,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
         <v>150</v>
       </c>
@@ -2341,7 +2861,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11">
       <c r="A58" s="10"/>
       <c r="D58" s="7"/>
       <c r="E58" s="11"/>
@@ -2352,7 +2872,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11">
       <c r="A59" s="7" t="s">
         <v>27</v>
       </c>
@@ -2365,7 +2885,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11">
       <c r="A60" s="10" t="s">
         <v>67</v>
       </c>
@@ -2379,7 +2899,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11">
       <c r="A61" s="10" t="s">
         <v>68</v>
       </c>
@@ -2393,7 +2913,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11">
       <c r="A62" s="10" t="s">
         <v>89</v>
       </c>
@@ -2407,7 +2927,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11">
       <c r="A63" s="19" t="s">
         <v>25</v>
       </c>
@@ -2421,7 +2941,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11">
       <c r="A64" s="19">
         <v>0.98699999999999999</v>
       </c>
@@ -2435,7 +2955,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11">
       <c r="A65" s="23" t="s">
         <v>153</v>
       </c>
@@ -2449,7 +2969,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11">
       <c r="A66" s="18">
         <f>229.594/236.736</f>
         <v>0.96983137334414704</v>
@@ -2464,12 +2984,12 @@
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11">
       <c r="A67" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11">
       <c r="A68" s="25">
         <v>0.97</v>
       </c>
@@ -2483,7 +3003,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11">
       <c r="A69" s="10" t="s">
         <v>283</v>
       </c>
@@ -2497,7 +3017,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11">
       <c r="A70" s="25">
         <v>1.0307117464753801</v>
       </c>
@@ -2511,7 +3031,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11">
       <c r="A71" s="2" t="s">
         <v>285</v>
       </c>
@@ -2525,7 +3045,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11">
       <c r="A72" s="25">
         <v>1.3023334349913156</v>
       </c>
@@ -2539,7 +3059,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11">
       <c r="B73" s="9"/>
       <c r="D73" s="7"/>
       <c r="E73" s="11"/>
@@ -2550,7 +3070,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11">
       <c r="A74" s="10"/>
       <c r="B74" s="9"/>
       <c r="D74" s="7"/>
@@ -2562,7 +3082,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11">
       <c r="A75" s="10"/>
       <c r="B75" s="9"/>
       <c r="D75" s="7"/>
@@ -2574,7 +3094,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11">
       <c r="A76" s="19" t="s">
         <v>24</v>
       </c>
@@ -2588,7 +3108,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11">
       <c r="A77" s="10"/>
       <c r="B77" s="9"/>
       <c r="D77" s="7"/>
@@ -2600,7 +3120,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11">
       <c r="A78" s="10"/>
       <c r="B78" s="9"/>
       <c r="D78" s="7"/>
@@ -2612,7 +3132,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11">
       <c r="A79" s="10"/>
       <c r="B79" s="9"/>
       <c r="D79" s="7"/>
@@ -2624,7 +3144,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11">
       <c r="A80" s="10"/>
       <c r="B80" s="9"/>
       <c r="D80" s="7"/>
@@ -2636,7 +3156,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="11"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11">
       <c r="A81" s="10"/>
       <c r="B81" s="9"/>
       <c r="D81" s="7"/>
@@ -2648,7 +3168,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11">
       <c r="A82" s="10"/>
       <c r="B82" s="9"/>
       <c r="D82" s="7"/>
@@ -2660,7 +3180,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11">
       <c r="A83" s="10"/>
       <c r="B83" s="9"/>
       <c r="D83" s="7"/>
@@ -2672,7 +3192,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11">
       <c r="A84" s="10"/>
       <c r="B84" s="9"/>
       <c r="D84" s="7"/>
@@ -2684,7 +3204,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11">
       <c r="A85" s="10"/>
       <c r="B85" s="9"/>
       <c r="D85" s="7"/>
@@ -2696,7 +3216,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11">
       <c r="A86" s="10"/>
       <c r="B86" s="9"/>
       <c r="D86" s="7"/>
@@ -2708,7 +3228,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11">
       <c r="A87" s="10"/>
       <c r="B87" s="9"/>
       <c r="D87" s="7"/>
@@ -2720,7 +3240,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11">
       <c r="A88" s="10"/>
       <c r="B88" s="9"/>
       <c r="D88" s="7"/>
@@ -2732,7 +3252,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11">
       <c r="A89" s="10"/>
       <c r="B89" s="9"/>
       <c r="D89" s="7"/>
@@ -2744,7 +3264,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="11"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11">
       <c r="A90" s="10"/>
       <c r="B90" s="9"/>
       <c r="D90" s="7"/>
@@ -2756,7 +3276,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11">
       <c r="A91" s="7"/>
       <c r="B91" s="9"/>
       <c r="D91" s="7"/>
@@ -2770,8 +3290,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html"/>
-    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -2779,482 +3299,707 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9AFFC0E-4E1B-A547-A0C3-22228047F355}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="52.54296875" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="59" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.83203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2">
-        <v>2917</v>
-      </c>
-      <c r="E2" s="16">
-        <v>4.47</v>
-      </c>
-      <c r="F2" s="16">
-        <v>31.16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+    <row r="2" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B2" s="59" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B4" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="62"/>
+    </row>
+    <row r="5" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B5" s="63"/>
+      <c r="C5" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B6" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="67">
+        <v>455</v>
+      </c>
+      <c r="E6" s="67">
+        <v>47.5</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="67">
+        <v>50</v>
+      </c>
+      <c r="H6" s="67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B7" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B8" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="69">
+        <v>6.7</v>
+      </c>
+      <c r="E8" s="69">
+        <v>9.6</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B9" s="65" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="72">
+        <v>0.375</v>
+      </c>
+      <c r="E9" s="72">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" s="71" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B10" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>318</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="74">
+        <v>225</v>
+      </c>
+      <c r="G10" s="74">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B11" s="65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="74">
+        <v>27</v>
+      </c>
+      <c r="E11" s="74">
+        <v>18</v>
+      </c>
+      <c r="F11" s="74">
+        <v>22</v>
+      </c>
+      <c r="G11" s="74">
+        <v>62</v>
+      </c>
+      <c r="H11" s="74">
         <v>46</v>
       </c>
-      <c r="D3">
-        <v>3727</v>
-      </c>
-      <c r="E3" s="16">
-        <v>7.22</v>
-      </c>
-      <c r="F3" s="16">
-        <v>51.37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>6492</v>
-      </c>
-      <c r="E4" s="16">
-        <v>8.44</v>
-      </c>
-      <c r="F4" s="16">
-        <v>72.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5">
-        <v>912</v>
-      </c>
-      <c r="E5" s="16">
-        <v>3.6</v>
-      </c>
-      <c r="F5" s="16">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>1017</v>
-      </c>
-      <c r="E6" s="16">
-        <v>3.27</v>
-      </c>
-      <c r="F6" s="16">
-        <v>15.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>2072</v>
-      </c>
-      <c r="E7" s="16">
-        <v>6.78</v>
-      </c>
-      <c r="F7" s="16">
-        <v>31.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>968</v>
-      </c>
-      <c r="E8" s="16">
-        <v>15.44</v>
-      </c>
-      <c r="F8" s="16">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9">
-        <v>671</v>
-      </c>
-      <c r="E9" s="16">
-        <v>10.37</v>
-      </c>
-      <c r="F9" s="16">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>6978</v>
-      </c>
-      <c r="E10" s="16">
-        <v>42.97</v>
-      </c>
-      <c r="F10" s="16">
+    </row>
+    <row r="12" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B12" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="74">
+        <v>8</v>
+      </c>
+      <c r="E12" s="74">
+        <v>4</v>
+      </c>
+      <c r="F12" s="74">
+        <v>4</v>
+      </c>
+      <c r="G12" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11">
-        <v>5366</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2.14</v>
-      </c>
-      <c r="F11" s="16">
-        <v>93.23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12">
-        <v>1477</v>
-      </c>
-      <c r="E12" s="16">
-        <v>7.75</v>
-      </c>
-      <c r="F12" s="16">
-        <v>17.440000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>1744</v>
-      </c>
-      <c r="E13" s="16">
-        <v>7.75</v>
-      </c>
-      <c r="F13" s="16">
-        <v>17.440000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>3659</v>
-      </c>
-      <c r="E14" s="16">
-        <v>5.26</v>
-      </c>
-      <c r="F14" s="16">
-        <v>105.58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
-        <v>2448</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="H12" s="74">
         <v>0</v>
       </c>
-      <c r="F15" s="16">
-        <v>112.85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16">
-        <v>8271</v>
-      </c>
-      <c r="E16" s="16">
-        <v>8.74</v>
-      </c>
-      <c r="F16" s="16">
-        <v>392.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17">
-        <v>2651</v>
-      </c>
-      <c r="E17" s="16">
-        <v>5.76</v>
-      </c>
-      <c r="F17" s="16">
-        <v>15.15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="24">
-        <v>1980</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>39.53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="24">
-        <v>6154</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>73.959999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>4052</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <v>67.23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="24">
-        <v>3279</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>24.68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="13" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B13" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
+    </row>
+    <row r="15" spans="2:8" ht="15">
+      <c r="B15" s="80" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15">
+      <c r="B16" s="80" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17">
+      <c r="B17" s="80" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15">
+      <c r="B18" s="80" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B20" s="59" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B21" s="81">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B22" s="82" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B23" s="59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="14.25" customHeight="1">
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+    </row>
+    <row r="28" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B28" s="84"/>
+    </row>
+    <row r="29" spans="2:5" ht="14.25" customHeight="1">
+      <c r="B29" s="84"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="D13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="81" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17">
-        <v>2016</v>
-      </c>
-      <c r="B3" s="19">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="16">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="18"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>2917</v>
+      </c>
+      <c r="E2" s="16">
+        <v>4.47</v>
+      </c>
+      <c r="F2" s="16">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>3727</v>
+      </c>
+      <c r="E3" s="16">
+        <v>7.22</v>
+      </c>
+      <c r="F3" s="16">
+        <v>51.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>6492</v>
+      </c>
+      <c r="E4" s="16">
+        <v>8.44</v>
+      </c>
+      <c r="F4" s="16">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5">
+        <v>912</v>
+      </c>
+      <c r="E5" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="F5" s="16">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>1017</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3.27</v>
+      </c>
+      <c r="F6" s="16">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>2072</v>
+      </c>
+      <c r="E7" s="16">
+        <v>6.78</v>
+      </c>
+      <c r="F7" s="16">
+        <v>31.77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>968</v>
+      </c>
+      <c r="E8" s="16">
+        <v>15.44</v>
+      </c>
+      <c r="F8" s="16">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>671</v>
+      </c>
+      <c r="E9" s="16">
+        <v>10.37</v>
+      </c>
+      <c r="F9" s="16">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>6978</v>
+      </c>
+      <c r="E10" s="16">
+        <v>42.97</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>5366</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2.14</v>
+      </c>
+      <c r="F11" s="16">
+        <v>93.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>1477</v>
+      </c>
+      <c r="E12" s="16">
+        <v>7.75</v>
+      </c>
+      <c r="F12" s="16">
+        <v>17.440000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>1744</v>
+      </c>
+      <c r="E13" s="16">
+        <v>7.75</v>
+      </c>
+      <c r="F13" s="16">
+        <v>17.440000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3659</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5.26</v>
+      </c>
+      <c r="F14" s="16">
+        <v>105.58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>2448</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>112.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>8271</v>
+      </c>
+      <c r="E16" s="16">
+        <v>8.74</v>
+      </c>
+      <c r="F16" s="16">
+        <v>392.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>2651</v>
+      </c>
+      <c r="E17" s="16">
+        <v>5.76</v>
+      </c>
+      <c r="F17" s="16">
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1980</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>39.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="24">
+        <v>6154</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>73.959999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>4052</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>67.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="24">
+        <v>3279</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>24.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3262,19 +4007,85 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="19" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="19" customFormat="1">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="19" customFormat="1">
+      <c r="A3" s="17">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="19" customFormat="1"/>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="19" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="16">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="18"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7265625" style="47" customWidth="1"/>
+    <col min="1" max="2" width="20.6640625" style="47" customWidth="1"/>
     <col min="3" max="3" width="21" style="47" customWidth="1"/>
-    <col min="4" max="8" width="20.7265625" style="47" customWidth="1"/>
+    <col min="4" max="8" width="20.6640625" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
@@ -3296,7 +4107,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" s="28" t="s">
         <v>99</v>
       </c>
@@ -3322,7 +4133,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="27" t="s">
         <v>102</v>
       </c>
@@ -3334,7 +4145,7 @@
       <c r="G3" s="58"/>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="27" t="s">
         <v>103</v>
       </c>
@@ -3348,7 +4159,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="30" t="s">
         <v>104</v>
       </c>
@@ -3374,7 +4185,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="32" t="s">
         <v>105</v>
       </c>
@@ -3400,7 +4211,7 @@
         <v>4652</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="34" t="s">
         <v>134</v>
       </c>
@@ -3412,7 +4223,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="36" t="s">
         <v>107</v>
       </c>
@@ -3438,7 +4249,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" s="39" t="s">
         <v>135</v>
       </c>
@@ -3450,7 +4261,7 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="36" t="s">
         <v>108</v>
       </c>
@@ -3476,7 +4287,7 @@
         <v>30210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="30">
       <c r="A11" s="39" t="s">
         <v>136</v>
       </c>
@@ -3488,7 +4299,7 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" s="36" t="s">
         <v>109</v>
       </c>
@@ -3514,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="30">
       <c r="A13" s="36" t="s">
         <v>110</v>
       </c>
@@ -3540,7 +4351,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="36" t="s">
         <v>111</v>
       </c>
@@ -3566,7 +4377,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" s="36" t="s">
         <v>112</v>
       </c>
@@ -3592,7 +4403,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="36" t="s">
         <v>113</v>
       </c>
@@ -3618,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17" s="36" t="s">
         <v>114</v>
       </c>
@@ -3644,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18" s="36" t="s">
         <v>115</v>
       </c>
@@ -3670,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19" s="36" t="s">
         <v>116</v>
       </c>
@@ -3696,7 +4507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20" s="36" t="s">
         <v>117</v>
       </c>
@@ -3722,7 +4533,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" s="36" t="s">
         <v>118</v>
       </c>
@@ -3748,7 +4559,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
         <v>119</v>
       </c>
@@ -3774,7 +4585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23" s="36" t="s">
         <v>120</v>
       </c>
@@ -3800,7 +4611,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" s="36" t="s">
         <v>121</v>
       </c>
@@ -3826,7 +4637,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" s="36" t="s">
         <v>122</v>
       </c>
@@ -3852,7 +4663,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" s="36" t="s">
         <v>123</v>
       </c>
@@ -3878,7 +4689,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="A27" s="36" t="s">
         <v>125</v>
       </c>
@@ -3904,7 +4715,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="A28" s="43" t="s">
         <v>126</v>
       </c>
@@ -3930,7 +4741,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="30">
       <c r="A29" s="32" t="s">
         <v>128</v>
       </c>
@@ -3956,7 +4767,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="30">
       <c r="A30" s="43" t="s">
         <v>128</v>
       </c>
@@ -3982,12 +4793,12 @@
         <v>7.87</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="B32" s="47" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4">
       <c r="A33" s="48" t="s">
         <v>137</v>
       </c>
@@ -3998,7 +4809,7 @@
       <c r="C33" s="49"/>
       <c r="D33" s="49"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" s="48" t="s">
         <v>126</v>
       </c>
@@ -4009,7 +4820,7 @@
       <c r="C34" s="49"/>
       <c r="D34" s="49"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" s="48" t="s">
         <v>108</v>
       </c>
@@ -4034,26 +4845,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AM126"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" s="23" customFormat="1">
       <c r="C1" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" s="23" customFormat="1">
       <c r="A2" s="23" t="s">
         <v>196</v>
       </c>
@@ -4172,7 +4981,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4291,7 +5100,7 @@
         <v>5148.989980474038</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4410,7 +5219,7 @@
         <v>5148.989980474038</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -4529,7 +5338,7 @@
         <v>5148.989980474038</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4648,7 +5457,7 @@
         <v>5148.989980474038</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4767,7 +5576,7 @@
         <v>5148.989980474038</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4886,7 +5695,7 @@
         <v>5148.989980474038</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -5005,7 +5814,7 @@
         <v>879.00824387573778</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39">
       <c r="A10" s="23" t="s">
         <v>33</v>
       </c>
@@ -5124,7 +5933,7 @@
         <v>879.00824387573778</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39">
       <c r="A11" s="23" t="s">
         <v>33</v>
       </c>
@@ -5243,7 +6052,7 @@
         <v>879.00824387573778</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -5362,7 +6171,7 @@
         <v>3841.7972658845301</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39">
       <c r="A13" s="23" t="s">
         <v>17</v>
       </c>
@@ -5481,7 +6290,7 @@
         <v>5937.8628529899997</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39">
       <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
@@ -5600,7 +6409,7 @@
         <v>5937.8628529899997</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39">
       <c r="A15" s="23" t="s">
         <v>17</v>
       </c>
@@ -5719,7 +6528,7 @@
         <v>3496.7712340550197</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39">
       <c r="A16" s="23" t="s">
         <v>17</v>
       </c>
@@ -5838,7 +6647,7 @@
         <v>5404.5923246599996</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:39">
       <c r="A17" s="23" t="s">
         <v>17</v>
       </c>
@@ -5957,7 +6766,7 @@
         <v>5404.5923246599996</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:39">
       <c r="A18" s="23" t="s">
         <v>17</v>
       </c>
@@ -6076,7 +6885,7 @@
         <v>2676.3291871999299</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:39">
       <c r="A19" s="23" t="s">
         <v>17</v>
       </c>
@@ -6195,7 +7004,7 @@
         <v>3976.7149884099999</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:39">
       <c r="A20" s="23" t="s">
         <v>17</v>
       </c>
@@ -6314,7 +7123,7 @@
         <v>3976.7149884099999</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:39">
       <c r="A21" s="23" t="s">
         <v>17</v>
       </c>
@@ -6433,7 +7242,7 @@
         <v>2523.30947482072</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:39">
       <c r="A22" s="23" t="s">
         <v>17</v>
       </c>
@@ -6552,7 +7361,7 @@
         <v>3749.3454306399999</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:39">
       <c r="A23" s="23" t="s">
         <v>17</v>
       </c>
@@ -6671,7 +7480,7 @@
         <v>3749.3454306399999</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:39">
       <c r="A24" s="23" t="s">
         <v>17</v>
       </c>
@@ -6790,7 +7599,7 @@
         <v>4527.5265621004901</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:39">
       <c r="A25" s="23" t="s">
         <v>17</v>
       </c>
@@ -6909,7 +7718,7 @@
         <v>6396.9511666995631</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:39">
       <c r="A26" s="23" t="s">
         <v>17</v>
       </c>
@@ -7028,7 +7837,7 @@
         <v>6997.72266167</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:39">
       <c r="A27" s="23" t="s">
         <v>17</v>
       </c>
@@ -7147,7 +7956,7 @@
         <v>4041.8354304029003</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:39">
       <c r="A28" s="23" t="s">
         <v>17</v>
       </c>
@@ -7266,7 +8075,7 @@
         <v>5710.717213358138</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:39">
       <c r="A29" s="23" t="s">
         <v>17</v>
       </c>
@@ -7385,7 +8194,7 @@
         <v>6247.0408507000002</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:39">
       <c r="A30" s="23" t="s">
         <v>17</v>
       </c>
@@ -7504,7 +8313,7 @@
         <v>3958.7452068934003</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:39">
       <c r="A31" s="23" t="s">
         <v>17</v>
       </c>
@@ -7623,7 +8432,7 @@
         <v>5593.3188734632904</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:39">
       <c r="A32" s="23" t="s">
         <v>17</v>
       </c>
@@ -7742,7 +8551,7 @@
         <v>6118.6170122000003</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:39">
       <c r="A33" s="23" t="s">
         <v>17</v>
       </c>
@@ -7861,7 +8670,7 @@
         <v>3563.7702055227301</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:39">
       <c r="A34" s="23" t="s">
         <v>17</v>
       </c>
@@ -7980,7 +8789,7 @@
         <v>5035.2579187279816</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:39">
       <c r="A35" s="23" t="s">
         <v>17</v>
       </c>
@@ -8099,7 +8908,7 @@
         <v>5508.1456035900001</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -8218,7 +9027,7 @@
         <v>4670.4204708786583</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -8337,7 +9146,7 @@
         <v>2314.2599054286479</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:39">
       <c r="A38" s="23" t="s">
         <v>19</v>
       </c>
@@ -8456,7 +9265,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:39">
       <c r="A39" s="23" t="s">
         <v>19</v>
       </c>
@@ -8575,7 +9384,7 @@
         <v>6846</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:39">
       <c r="A40" s="23" t="s">
         <v>19</v>
       </c>
@@ -8694,7 +9503,7 @@
         <v>2314.2599054286479</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:39">
       <c r="A41" s="23" t="s">
         <v>19</v>
       </c>
@@ -8813,7 +9622,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:39">
       <c r="A42" s="23" t="s">
         <v>19</v>
       </c>
@@ -8932,7 +9741,7 @@
         <v>6846</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:39">
       <c r="A43" s="23" t="s">
         <v>19</v>
       </c>
@@ -9051,7 +9860,7 @@
         <v>2314.2599054286479</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:39">
       <c r="A44" s="23" t="s">
         <v>19</v>
       </c>
@@ -9170,7 +9979,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:39">
       <c r="A45" s="23" t="s">
         <v>19</v>
       </c>
@@ -9289,7 +10098,7 @@
         <v>6846</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:39">
       <c r="A46" s="23" t="s">
         <v>19</v>
       </c>
@@ -9408,7 +10217,7 @@
         <v>2708.1621147580863</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:39">
       <c r="A47" s="23" t="s">
         <v>19</v>
       </c>
@@ -9527,7 +10336,7 @@
         <v>3533.8</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:39">
       <c r="A48" s="23" t="s">
         <v>19</v>
       </c>
@@ -9646,7 +10455,7 @@
         <v>8024.8</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:39">
       <c r="A49" s="23" t="s">
         <v>19</v>
       </c>
@@ -9765,7 +10574,7 @@
         <v>2708.1621147580863</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:39">
       <c r="A50" s="23" t="s">
         <v>19</v>
       </c>
@@ -9884,7 +10693,7 @@
         <v>3533.8</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39">
       <c r="A51" s="23" t="s">
         <v>19</v>
       </c>
@@ -10003,7 +10812,7 @@
         <v>8024.8</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39">
       <c r="A52" s="23" t="s">
         <v>19</v>
       </c>
@@ -10122,7 +10931,7 @@
         <v>2708.1621147580863</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:39">
       <c r="A53" s="23" t="s">
         <v>19</v>
       </c>
@@ -10241,7 +11050,7 @@
         <v>3533.8</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:39">
       <c r="A54" s="23" t="s">
         <v>19</v>
       </c>
@@ -10360,7 +11169,7 @@
         <v>8024.8</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -10479,7 +11288,7 @@
         <v>3209.4346134715447</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:39">
       <c r="A56" s="23" t="s">
         <v>20</v>
       </c>
@@ -10598,7 +11407,7 @@
         <v>3209.4346134715447</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39">
       <c r="A57" s="23" t="s">
         <v>20</v>
       </c>
@@ -10717,7 +11526,7 @@
         <v>3209.4346134715447</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:39">
       <c r="A58" s="23" t="s">
         <v>20</v>
       </c>
@@ -10836,7 +11645,7 @@
         <v>3513.9027770378107</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:39">
       <c r="A59" s="23" t="s">
         <v>20</v>
       </c>
@@ -10955,7 +11764,7 @@
         <v>3513.9027770378107</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39">
       <c r="A60" s="23" t="s">
         <v>20</v>
       </c>
@@ -11074,7 +11883,7 @@
         <v>3513.9027770378107</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:39">
       <c r="A61" s="23" t="s">
         <v>20</v>
       </c>
@@ -11193,7 +12002,7 @@
         <v>3513.9027770378107</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39">
       <c r="A62" s="23" t="s">
         <v>20</v>
       </c>
@@ -11312,7 +12121,7 @@
         <v>3513.9027770378107</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:39">
       <c r="A63" s="23" t="s">
         <v>20</v>
       </c>
@@ -11431,7 +12240,7 @@
         <v>3513.9027770378107</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -11550,7 +12359,7 @@
         <v>3767.7750000000015</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:39">
       <c r="A65" s="23" t="s">
         <v>34</v>
       </c>
@@ -11669,7 +12478,7 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:39">
       <c r="A66" s="23" t="s">
         <v>34</v>
       </c>
@@ -11788,7 +12597,7 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:39">
       <c r="A67" s="23" t="s">
         <v>34</v>
       </c>
@@ -11907,7 +12716,7 @@
         <v>4508.625</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:39">
       <c r="A68" s="23" t="s">
         <v>34</v>
       </c>
@@ -12026,7 +12835,7 @@
         <v>5465</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:39">
       <c r="A69" s="23" t="s">
         <v>34</v>
       </c>
@@ -12145,7 +12954,7 @@
         <v>5465</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:39">
       <c r="A70" s="23" t="s">
         <v>34</v>
       </c>
@@ -12264,7 +13073,7 @@
         <v>6682.5</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:39">
       <c r="A71" s="23" t="s">
         <v>34</v>
       </c>
@@ -12383,7 +13192,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:39">
       <c r="A72" s="23" t="s">
         <v>34</v>
       </c>
@@ -12502,7 +13311,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:39">
       <c r="A73" s="23" t="s">
         <v>34</v>
       </c>
@@ -12621,7 +13430,7 @@
         <v>10047.675000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:39">
       <c r="A74" s="23" t="s">
         <v>34</v>
       </c>
@@ -12740,7 +13549,7 @@
         <v>12179</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:39">
       <c r="A75" s="23" t="s">
         <v>34</v>
       </c>
@@ -12859,7 +13668,7 @@
         <v>12179</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:39">
       <c r="A76" s="23" t="s">
         <v>34</v>
       </c>
@@ -12978,7 +13787,7 @@
         <v>6682.5</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:39">
       <c r="A77" s="23" t="s">
         <v>34</v>
       </c>
@@ -13097,7 +13906,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:39">
       <c r="A78" s="23" t="s">
         <v>34</v>
       </c>
@@ -13216,7 +14025,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:39">
       <c r="A79" s="23" t="s">
         <v>34</v>
       </c>
@@ -13335,7 +14144,7 @@
         <v>10047.675000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:39">
       <c r="A80" s="23" t="s">
         <v>34</v>
       </c>
@@ -13454,7 +14263,7 @@
         <v>12179</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:39">
       <c r="A81" s="23" t="s">
         <v>34</v>
       </c>
@@ -13573,7 +14382,7 @@
         <v>12179</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -13692,7 +14501,7 @@
         <v>744.24818258143239</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:39">
       <c r="A83" s="23" t="s">
         <v>36</v>
       </c>
@@ -13811,7 +14620,7 @@
         <v>744.24818258143239</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:39">
       <c r="A84" s="23" t="s">
         <v>36</v>
       </c>
@@ -13930,7 +14739,7 @@
         <v>744.24818258143239</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
         <v>139</v>
       </c>
@@ -14049,7 +14858,7 @@
         <v>2776.5942673015006</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:39">
       <c r="A86" s="23" t="s">
         <v>139</v>
       </c>
@@ -14168,7 +14977,7 @@
         <v>3686.7291805626332</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:39">
       <c r="A87" s="23" t="s">
         <v>139</v>
       </c>
@@ -14287,7 +15096,7 @@
         <v>5391.5126343022939</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:39">
       <c r="A88" s="23" t="s">
         <v>139</v>
       </c>
@@ -14406,7 +15215,7 @@
         <v>2776.5942673015006</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:39">
       <c r="A89" s="23" t="s">
         <v>139</v>
       </c>
@@ -14525,7 +15334,7 @@
         <v>3686.7291805626332</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:39">
       <c r="A90" s="23" t="s">
         <v>139</v>
       </c>
@@ -14644,7 +15453,7 @@
         <v>5391.512634302233</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:39">
       <c r="A91" s="23" t="s">
         <v>139</v>
       </c>
@@ -14763,7 +15572,7 @@
         <v>2776.5942673015006</v>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:39">
       <c r="A92" s="23" t="s">
         <v>139</v>
       </c>
@@ -14882,7 +15691,7 @@
         <v>3686.7291805626332</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:39">
       <c r="A93" s="23" t="s">
         <v>139</v>
       </c>
@@ -15001,7 +15810,7 @@
         <v>5391.5126343022639</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:39">
       <c r="A94" s="23" t="s">
         <v>139</v>
       </c>
@@ -15120,7 +15929,7 @@
         <v>2776.5942673015006</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:39">
       <c r="A95" s="23" t="s">
         <v>139</v>
       </c>
@@ -15239,7 +16048,7 @@
         <v>3686.7291805626332</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:39">
       <c r="A96" s="23" t="s">
         <v>139</v>
       </c>
@@ -15358,7 +16167,7 @@
         <v>5391.5126343023448</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:39">
       <c r="A97" s="23" t="s">
         <v>139</v>
       </c>
@@ -15477,7 +16286,7 @@
         <v>3060.3187538743205</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:39">
       <c r="A98" s="23" t="s">
         <v>139</v>
       </c>
@@ -15596,7 +16405,7 @@
         <v>4067.2387457163932</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:39">
       <c r="A99" s="23" t="s">
         <v>139</v>
       </c>
@@ -15715,7 +16524,7 @@
         <v>5953.3433007831181</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:39">
       <c r="A100" s="23" t="s">
         <v>139</v>
       </c>
@@ -15834,7 +16643,7 @@
         <v>3060.3187538743205</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:39">
       <c r="A101" s="23" t="s">
         <v>139</v>
       </c>
@@ -15953,7 +16762,7 @@
         <v>4067.2387457163932</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:39">
       <c r="A102" s="23" t="s">
         <v>139</v>
       </c>
@@ -16072,7 +16881,7 @@
         <v>5953.3433007831181</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:39">
       <c r="A103" s="23" t="s">
         <v>139</v>
       </c>
@@ -16191,7 +17000,7 @@
         <v>3060.3187538743205</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:39">
       <c r="A104" s="23" t="s">
         <v>139</v>
       </c>
@@ -16310,7 +17119,7 @@
         <v>4067.2387457163932</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:39">
       <c r="A105" s="23" t="s">
         <v>139</v>
       </c>
@@ -16429,7 +17238,7 @@
         <v>5953.3433007831181</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:39">
       <c r="A106" s="23" t="s">
         <v>139</v>
       </c>
@@ -16548,7 +17357,7 @@
         <v>3573.1052112582247</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:39">
       <c r="A107" s="23" t="s">
         <v>139</v>
       </c>
@@ -16667,7 +17476,7 @@
         <v>4754.9486937465826</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:39">
       <c r="A108" s="23" t="s">
         <v>139</v>
       </c>
@@ -16786,7 +17595,7 @@
         <v>6968.7620282760181</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:39">
       <c r="A109" s="23" t="s">
         <v>139</v>
       </c>
@@ -16905,7 +17714,7 @@
         <v>3573.1052112582247</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:39">
       <c r="A110" s="23" t="s">
         <v>139</v>
       </c>
@@ -17024,7 +17833,7 @@
         <v>4754.9486937465826</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:39">
       <c r="A111" s="23" t="s">
         <v>139</v>
       </c>
@@ -17143,7 +17952,7 @@
         <v>6968.762028276089</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:39">
       <c r="A112" s="23" t="s">
         <v>139</v>
       </c>
@@ -17262,7 +18071,7 @@
         <v>3573.1052112582247</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:39">
       <c r="A113" s="23" t="s">
         <v>139</v>
       </c>
@@ -17381,7 +18190,7 @@
         <v>4754.9486937465826</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:39">
       <c r="A114" s="23" t="s">
         <v>139</v>
       </c>
@@ -17500,7 +18309,7 @@
         <v>6968.762028276079</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:39">
       <c r="A117" s="23"/>
       <c r="B117" s="23">
         <v>2014</v>
@@ -17614,7 +18423,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:39">
       <c r="A118" s="23" t="s">
         <v>15</v>
       </c>
@@ -17767,7 +18576,7 @@
         <v>0.78696361804456072</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:39">
       <c r="A119" s="23" t="s">
         <v>33</v>
       </c>
@@ -17920,7 +18729,7 @@
         <v>0.86459625081794989</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:39">
       <c r="A120" s="23" t="s">
         <v>16</v>
       </c>
@@ -18073,7 +18882,7 @@
         <v>0.85132270734871507</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:39">
       <c r="A121" s="23" t="s">
         <v>17</v>
       </c>
@@ -18226,7 +19035,7 @@
         <v>0.86765876537602138</v>
       </c>
     </row>
-    <row r="122" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:39" s="23" customFormat="1">
       <c r="A122" s="23" t="s">
         <v>19</v>
       </c>
@@ -18379,7 +19188,7 @@
         <v>0.59405057831873509</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:39">
       <c r="A123" s="23" t="s">
         <v>20</v>
       </c>
@@ -18532,7 +19341,7 @@
         <v>0.89985965374684962</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:39">
       <c r="A124" s="23" t="s">
         <v>34</v>
       </c>
@@ -18685,7 +19494,7 @@
         <v>0.94166666666666676</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:39">
       <c r="A125" s="23" t="s">
         <v>36</v>
       </c>
@@ -18838,7 +19647,7 @@
         <v>0.85625040904353411</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:39">
       <c r="A126" s="23" t="s">
         <v>139</v>
       </c>
@@ -18996,28 +19805,275 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="4">
+        <f>('EIA Costs'!F2*1000)*(USD_to_CAN)</f>
+        <v>32116.978020172843</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>('EIA Costs'!F4*1000)*(USD_to_CAN)</f>
+        <v>75035.815143407672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4">
+        <f>('EIA Costs'!F5*1000)*(USD_to_CAN)</f>
+        <v>13564.166583616003</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f>('EIA Costs'!F6*1000)*(USD_to_CAN)</f>
+        <v>15831.732425861839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <f>('EIA Costs'!F11*1000)*(USD_to_CAN)</f>
+        <v>96093.256123899686</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <f>('EIA Costs'!F11*1000)*(USD_to_CAN)</f>
+        <v>96093.256123899686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <f>('EIA Costs'!F17*1000)*(USD_to_CAN)</f>
+        <v>15615.282959102009</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>('EIA Costs'!F17*1000)*(USD_to_CAN)</f>
+        <v>15615.282959102009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="4">
+        <f>('EIA Costs'!F18*1000)*(USD_to_CAN)</f>
+        <v>40744.035338171772</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <f>('EIA Costs'!F18*1000)*(USD_to_CAN)</f>
+        <v>40744.035338171772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4">
+        <f>('EIA Costs'!F21*1000)*(USD_to_CAN)</f>
+        <v>25437.96590301238</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <f>('EIA Costs'!F21*1000)*(USD_to_CAN)</f>
+        <v>25437.96590301238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4">
+        <f>('EIA Costs'!F20*1000)*(USD_to_CAN)</f>
+        <v>69294.750715539805</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f>('EIA Costs'!F20*1000)*(USD_to_CAN)</f>
+        <v>69294.750715539805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4">
+        <f>('EIA Costs'!F14*1000)*(USD_to_CAN)</f>
+        <v>108822.54619287064</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f>('EIA Costs'!F14*1000)*(USD_to_CAN)</f>
+        <v>108822.54619287064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4">
+        <f>('EIA Costs'!F15*1000)*(USD_to_CAN)</f>
+        <v>116315.82058974664</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f>('EIA Costs'!F15*1000)*(USD_to_CAN)</f>
+        <v>116315.82058974664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4">
+        <f>(B12)*(USD_to_CAN)</f>
+        <v>7797.771609725889</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <f>(D12)*(USD_to_CAN)</f>
+        <v>7479.0615984291908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="4">
+        <f>('EIA Costs'!F8*1000)*(USD_to_CAN)</f>
+        <v>7565.4242191292897</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <f>('EIA Costs'!F9*1000)*(USD_to_CAN)</f>
+        <v>7256.2106951866763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" s="4">
+        <f>22*10^3*'Coal-to-gas costs'!$B$21</f>
+        <v>21340</v>
+      </c>
+      <c r="C13" s="4">
+        <f>C2*'Coal Cost Multipliers'!$B$35</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B13</f>
+        <v>21340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="4">
+        <f>('EIA Costs'!F19*1000)*(USD_to_CAN)</f>
+        <v>76231.440769319117</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <f>('EIA Costs'!F19*1000)*(USD_to_CAN)</f>
+        <v>76231.440769319117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B2" sqref="B2:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
-    <col min="3" max="3" width="28.54296875" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="23" customWidth="1"/>
+    <col min="2" max="4" width="24" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>93</v>
@@ -19029,254 +20085,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="4">
-        <f>('EIA Costs'!F2*1000)*(USD_to_CAN)</f>
-        <v>32116.978020172843</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <f>('EIA Costs'!F4*1000)*(USD_to_CAN)</f>
-        <v>75035.815143407672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="4">
-        <f>('EIA Costs'!F5*1000)*(USD_to_CAN)</f>
-        <v>13564.166583616003</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <f>('EIA Costs'!F6*1000)*(USD_to_CAN)</f>
-        <v>15831.732425861839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
-        <f>('EIA Costs'!F11*1000)*(USD_to_CAN)</f>
-        <v>96093.256123899686</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <f>('EIA Costs'!F11*1000)*(USD_to_CAN)</f>
-        <v>96093.256123899686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4">
-        <f>('EIA Costs'!F17*1000)*(USD_to_CAN)</f>
-        <v>15615.282959102009</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <f>('EIA Costs'!F17*1000)*(USD_to_CAN)</f>
-        <v>15615.282959102009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="4">
-        <f>('EIA Costs'!F18*1000)*(USD_to_CAN)</f>
-        <v>40744.035338171772</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <f>('EIA Costs'!F18*1000)*(USD_to_CAN)</f>
-        <v>40744.035338171772</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4">
-        <f>('EIA Costs'!F21*1000)*(USD_to_CAN)</f>
-        <v>25437.96590301238</v>
-      </c>
-      <c r="C7" s="23">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <f>('EIA Costs'!F21*1000)*(USD_to_CAN)</f>
-        <v>25437.96590301238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4">
-        <f>('EIA Costs'!F20*1000)*(USD_to_CAN)</f>
-        <v>69294.750715539805</v>
-      </c>
-      <c r="C8" s="23">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <f>('EIA Costs'!F20*1000)*(USD_to_CAN)</f>
-        <v>69294.750715539805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4">
-        <f>('EIA Costs'!F14*1000)*(USD_to_CAN)</f>
-        <v>108822.54619287064</v>
-      </c>
-      <c r="C9" s="23">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <f>('EIA Costs'!F14*1000)*(USD_to_CAN)</f>
-        <v>108822.54619287064</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4">
-        <f>('EIA Costs'!F15*1000)*(USD_to_CAN)</f>
-        <v>116315.82058974664</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <f>('EIA Costs'!F15*1000)*(USD_to_CAN)</f>
-        <v>116315.82058974664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4">
-        <f>(B12)*(USD_to_CAN)</f>
-        <v>7797.771609725889</v>
-      </c>
-      <c r="C11" s="23">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f>(D12)*(USD_to_CAN)</f>
-        <v>7479.0615984291908</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="4">
-        <f>('EIA Costs'!F8*1000)*(USD_to_CAN)</f>
-        <v>7565.4242191292897</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f>('EIA Costs'!F9*1000)*(USD_to_CAN)</f>
-        <v>7256.2106951866763</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="4">
-        <f>22*10^3*About!$A$72</f>
-        <v>28651.335569808944</v>
-      </c>
-      <c r="C13" s="4">
-        <f>C2*'Coal Cost Multipliers'!$B$35</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <f>B13</f>
-        <v>28651.335569808944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="4">
-        <f>('EIA Costs'!F19*1000)*(USD_to_CAN)</f>
-        <v>76231.440769319117</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <f>('EIA Costs'!F19*1000)*(USD_to_CAN)</f>
-        <v>76231.440769319117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="33.26953125" style="23" customWidth="1"/>
-    <col min="2" max="4" width="24" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="23" t="s">
         <v>15</v>
       </c>
@@ -19292,7 +20101,7 @@
         <v>8.6992071402522075</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="23" t="s">
         <v>33</v>
       </c>
@@ -19308,7 +20117,7 @@
         <v>3.3704274109744929</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="23" t="s">
         <v>16</v>
       </c>
@@ -19324,7 +20133,7 @@
         <v>2.2057231374573134</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="23" t="s">
         <v>17</v>
       </c>
@@ -19340,7 +20149,7 @@
         <v>5.9368996596981889</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="23" t="s">
         <v>140</v>
       </c>
@@ -19356,7 +20165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="23" t="s">
         <v>18</v>
       </c>
@@ -19372,7 +20181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="23" t="s">
         <v>19</v>
       </c>
@@ -19388,7 +20197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="23" t="s">
         <v>20</v>
       </c>
@@ -19404,7 +20213,7 @@
         <v>5.4215437864604992</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="23" t="s">
         <v>34</v>
       </c>
@@ -19420,7 +20229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="23" t="s">
         <v>35</v>
       </c>
@@ -19436,7 +20245,7 @@
         <v>11.016742723822544</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="23" t="s">
         <v>36</v>
       </c>
@@ -19452,13 +20261,13 @@
         <v>10.688480810949692</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="23" t="s">
         <v>286</v>
       </c>
       <c r="B13" s="12">
-        <f>1.3*About!$A$72</f>
-        <v>1.6930334654887103</v>
+        <f>4*'Coal-to-gas costs'!$B$21</f>
+        <v>3.88</v>
       </c>
       <c r="C13" s="16">
         <f>C2*'Coal Cost Multipliers'!$B$34</f>
@@ -19466,10 +20275,10 @@
       </c>
       <c r="D13" s="12">
         <f>B13</f>
-        <v>1.6930334654887103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="23" t="s">
         <v>139</v>
       </c>
@@ -19490,34 +20299,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N35" sqref="B2:N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" customWidth="1"/>
-    <col min="12" max="12" width="28.1796875" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.5" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -19561,9 +20370,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B2" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
@@ -19571,7 +20380,7 @@
       </c>
       <c r="C2" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>1034606.8061653106</v>
+        <v>1022028.6989671219</v>
       </c>
       <c r="D2" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
@@ -19579,7 +20388,7 @@
       </c>
       <c r="E2" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2682502.767389813</v>
+        <v>2668115.1182747921</v>
       </c>
       <c r="F2" s="20">
         <f>('Start Year Wind and Solar'!B3*10^3*About!$A$68)*(USD_to_CAN)</f>
@@ -19591,44 +20400,44 @@
       </c>
       <c r="H2" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3833371.9141913583</v>
+        <v>3688982.758906587</v>
       </c>
       <c r="I2" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3718030.7115818425</v>
+        <v>3673043.0131127825</v>
       </c>
       <c r="J2" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2486230.3497773116</v>
+        <v>2482079.7148027248</v>
       </c>
       <c r="K2" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>682616.68332047528</v>
+        <v>674317.85349748167</v>
       </c>
       <c r="L2" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>682616.68332047528</v>
+        <v>674317.85349748167</v>
       </c>
       <c r="M2" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>294327.3563080373</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N2" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>5678624.9019096587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5572137.4820642537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6604392.7095626313</v>
+        <v>6518737.5368461963</v>
       </c>
       <c r="C3" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>1022028.6989671219</v>
+        <v>1019187.5182024261</v>
       </c>
       <c r="D3" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
@@ -19636,7 +20445,7 @@
       </c>
       <c r="E3" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2668115.1182747921</v>
+        <v>2653727.4691597698</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -19646,44 +20455,44 @@
       </c>
       <c r="H3" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3688982.758906587</v>
+        <v>3544593.6036218135</v>
       </c>
       <c r="I3" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3673043.0131127825</v>
+        <v>3661242.7862337083</v>
       </c>
       <c r="J3" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2482079.7148027248</v>
+        <v>2477929.0798281389</v>
       </c>
       <c r="K3" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>674317.85349748167</v>
+        <v>672304.76142022957</v>
       </c>
       <c r="L3" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>674317.85349748167</v>
+        <v>672304.76142022957</v>
       </c>
       <c r="M3" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>294327.3563080373</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N3" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>5572137.4820642537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5465650.0622188486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6518737.5368461963</v>
+        <v>6419226.4074551985</v>
       </c>
       <c r="C4" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>1019187.5182024261</v>
+        <v>1015554.9053319652</v>
       </c>
       <c r="D4" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
@@ -19691,7 +20500,7 @@
       </c>
       <c r="E4" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2653727.4691597698</v>
+        <v>2639346.4604614382</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -19701,44 +20510,44 @@
       </c>
       <c r="H4" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3544593.6036218135</v>
+        <v>3400204.4483370418</v>
       </c>
       <c r="I4" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3661242.7862337083</v>
+        <v>3668841.5835286845</v>
       </c>
       <c r="J4" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2477929.0798281389</v>
+        <v>2473778.4448535526</v>
       </c>
       <c r="K4" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>672304.76142022957</v>
+        <v>669768.74384894408</v>
       </c>
       <c r="L4" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>672304.76142022957</v>
+        <v>669768.74384894408</v>
       </c>
       <c r="M4" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>290510.09987759619</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N4" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>5465650.0622188486</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5359162.6423734408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6419226.4074551985</v>
+        <v>6312309.4965583626</v>
       </c>
       <c r="C5" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>1015554.9053319652</v>
+        <v>1009365.1932078713</v>
       </c>
       <c r="D5" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
@@ -19746,7 +20555,7 @@
       </c>
       <c r="E5" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2639346.4604614382</v>
+        <v>2624965.4517631065</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -19756,44 +20565,44 @@
       </c>
       <c r="H5" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3400204.4483370418</v>
+        <v>3255815.2930522705</v>
       </c>
       <c r="I5" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3668841.5835286845</v>
+        <v>3658545.1554234801</v>
       </c>
       <c r="J5" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2473778.4448535526</v>
+        <v>2469627.8098789658</v>
       </c>
       <c r="K5" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>669768.74384894408</v>
+        <v>665212.03577896755</v>
       </c>
       <c r="L5" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>669768.74384894408</v>
+        <v>665212.03577896755</v>
       </c>
       <c r="M5" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>286075.34729323344</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N5" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>5359162.6423734408</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5252675.2225280348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6312309.4965583626</v>
+        <v>6275036.5607072925</v>
       </c>
       <c r="C6" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>1009365.1932078713</v>
+        <v>1006394.3044347229</v>
       </c>
       <c r="D6" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
@@ -19801,7 +20610,7 @@
       </c>
       <c r="E6" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2624965.4517631065</v>
+        <v>2610591.0554950349</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -19811,44 +20620,44 @@
       </c>
       <c r="H6" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3255815.2930522705</v>
+        <v>3156744.8670947189</v>
       </c>
       <c r="I6" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3658545.1554234801</v>
+        <v>3648246.343958457</v>
       </c>
       <c r="J6" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2469627.8098789658</v>
+        <v>2465477.1749043781</v>
       </c>
       <c r="K6" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>665212.03577896755</v>
+        <v>663198.7895143592</v>
       </c>
       <c r="L6" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>665212.03577896755</v>
+        <v>663198.7895143592</v>
       </c>
       <c r="M6" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>281310.55314594967</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N6" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>5252675.2225280348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5121762.9168162746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B7" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6275036.5607072925</v>
+        <v>6243061.4494537376</v>
       </c>
       <c r="C7" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>1006394.3044347229</v>
+        <v>1003368.902974208</v>
       </c>
       <c r="D7" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
@@ -19856,7 +20665,7 @@
       </c>
       <c r="E7" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2610591.0554950349</v>
+        <v>2596216.6592269633</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -19866,52 +20675,52 @@
       </c>
       <c r="H7" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3156744.8670947189</v>
+        <v>3057674.4411371681</v>
       </c>
       <c r="I7" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3648246.343958457</v>
+        <v>3637947.9590882491</v>
       </c>
       <c r="J7" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2465477.1749043781</v>
+        <v>2461326.5399297923</v>
       </c>
       <c r="K7" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>663198.7895143592</v>
+        <v>661142.498037852</v>
       </c>
       <c r="L7" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>663198.7895143592</v>
+        <v>661142.498037852</v>
       </c>
       <c r="M7" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>279649.47011328867</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N7" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>5121762.9168162746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4990850.6111045117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6243061.4494537376</v>
+        <v>6211087.4682579711</v>
       </c>
       <c r="C8" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>1003368.902974208</v>
+        <v>1000397.5964075292</v>
       </c>
       <c r="D8" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5458898.8415762605</v>
+        <v>5429909.7826183392</v>
       </c>
       <c r="E8" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2596216.6592269633</v>
+        <v>2581848.8346816157</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -19921,52 +20730,52 @@
       </c>
       <c r="H8" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3057674.4411371681</v>
+        <v>2958604.0151796173</v>
       </c>
       <c r="I8" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3637947.9590882491</v>
+        <v>3627647.3895657016</v>
       </c>
       <c r="J8" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2461326.5399297923</v>
+        <v>2457175.904955206</v>
       </c>
       <c r="K8" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>661142.498037852</v>
+        <v>659128.99573891668</v>
       </c>
       <c r="L8" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>661142.498037852</v>
+        <v>659128.99573891668</v>
       </c>
       <c r="M8" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>278224.48671560432</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N8" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4990850.6111045117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4859938.3053927487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B9" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6211087.4682579711</v>
+        <v>6172164.3974296302</v>
       </c>
       <c r="C9" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>1000397.5964075292</v>
+        <v>997427.65411970741</v>
       </c>
       <c r="D9" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5429909.7826183392</v>
+        <v>5400926.7632485265</v>
       </c>
       <c r="E9" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2581848.8346816157</v>
+        <v>2567481.0101362681</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -19976,52 +20785,52 @@
       </c>
       <c r="H9" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2958604.0151796173</v>
+        <v>2859533.5892220661</v>
       </c>
       <c r="I9" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3627647.3895657016</v>
+        <v>3617351.21325617</v>
       </c>
       <c r="J9" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2457175.904955206</v>
+        <v>2453025.2699806197</v>
       </c>
       <c r="K9" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>659128.99573891668</v>
+        <v>657116.26590380142</v>
       </c>
       <c r="L9" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>659128.99573891668</v>
+        <v>657116.26590380142</v>
       </c>
       <c r="M9" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>276799.55367938936</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N9" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4859938.3053927487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4831885.668454512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B10" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6172164.3974296302</v>
+        <v>6138616.820313381</v>
       </c>
       <c r="C10" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>997427.65411970741</v>
+        <v>994325.72567779908</v>
       </c>
       <c r="D10" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5400926.7632485265</v>
+        <v>5371938.471074665</v>
       </c>
       <c r="E10" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2567481.0101362681</v>
+        <v>2553119.7267829943</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -20031,52 +20840,52 @@
       </c>
       <c r="H10" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2859533.5892220661</v>
+        <v>2760463.1632645163</v>
       </c>
       <c r="I10" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3617351.21325617</v>
+        <v>3607050.9782757941</v>
       </c>
       <c r="J10" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2453025.2699806197</v>
+        <v>2448874.6350060333</v>
       </c>
       <c r="K10" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>657116.26590380142</v>
+        <v>654999.64972712228</v>
       </c>
       <c r="L10" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>657116.26590380142</v>
+        <v>654999.64972712228</v>
       </c>
       <c r="M10" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>275064.93173304317</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N10" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4831885.668454512</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4803833.0315162772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B11" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6138616.820313381</v>
+        <v>6098465.2359172041</v>
       </c>
       <c r="C11" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>994325.72567779908</v>
+        <v>985465.28508245002</v>
       </c>
       <c r="D11" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5371938.471074665</v>
+        <v>5342954.8907618076</v>
       </c>
       <c r="E11" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2553119.7267829943</v>
+        <v>2538758.4434297192</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -20086,52 +20895,52 @@
       </c>
       <c r="H11" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2760463.1632645163</v>
+        <v>2716394.4844279829</v>
       </c>
       <c r="I11" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3607050.9782757941</v>
+        <v>3596754.7027100902</v>
       </c>
       <c r="J11" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2448874.6350060333</v>
+        <v>2444724.0000314466</v>
       </c>
       <c r="K11" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>654999.64972712228</v>
+        <v>648332.74961532524</v>
       </c>
       <c r="L11" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>654999.64972712228</v>
+        <v>648332.74961532524</v>
       </c>
       <c r="M11" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>273569.87077628501</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N11" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4803833.0315162772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4775780.3945780415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B12" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6098465.2359172041</v>
+        <v>6049200.1288535865</v>
       </c>
       <c r="C12" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>985465.28508245002</v>
+        <v>978637.49508273415</v>
       </c>
       <c r="D12" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5342954.8907618076</v>
+        <v>5313968.6937685255</v>
       </c>
       <c r="E12" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2538758.4434297192</v>
+        <v>2524403.6681936458</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -20141,52 +20950,52 @@
       </c>
       <c r="H12" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2716394.4844279829</v>
+        <v>2673222.0862054108</v>
       </c>
       <c r="I12" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3596754.7027100902</v>
+        <v>3586455.7636627262</v>
       </c>
       <c r="J12" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2444724.0000314466</v>
+        <v>2440573.3650568603</v>
       </c>
       <c r="K12" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>648332.74961532524</v>
+        <v>643271.98184005148</v>
       </c>
       <c r="L12" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>648332.74961532524</v>
+        <v>643271.98184005148</v>
       </c>
       <c r="M12" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>271780.49964004185</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N12" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4775780.3945780415</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4747727.7576398058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B13" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6049200.1288535865</v>
+        <v>6015853.9566496387</v>
       </c>
       <c r="C13" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>978637.49508273415</v>
+        <v>972306.80164388649</v>
       </c>
       <c r="D13" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5313968.6937685255</v>
+        <v>5284981.3490927275</v>
       </c>
       <c r="E13" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2524403.6681936458</v>
+        <v>2510048.8929575714</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -20196,52 +21005,52 @@
       </c>
       <c r="H13" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2673222.0862054108</v>
+        <v>2630817.7907714639</v>
       </c>
       <c r="I13" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3586455.7636627262</v>
+        <v>3576156.5657521901</v>
       </c>
       <c r="J13" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2440573.3650568603</v>
+        <v>2436422.730082273</v>
       </c>
       <c r="K13" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>643271.98184005148</v>
+        <v>638604.0745326943</v>
       </c>
       <c r="L13" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>643271.98184005148</v>
+        <v>638604.0745326943</v>
       </c>
       <c r="M13" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>269584.98078495136</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N13" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4747727.7576398058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4719675.1207015738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B14" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>6015853.9566496387</v>
+        <v>5975643.1644014055</v>
       </c>
       <c r="C14" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>972306.80164388649</v>
+        <v>967804.40694439784</v>
       </c>
       <c r="D14" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5284981.3490927275</v>
+        <v>5255998.6227015769</v>
       </c>
       <c r="E14" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2510048.8929575714</v>
+        <v>2495700.5927638263</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -20251,52 +21060,52 @@
       </c>
       <c r="H14" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2630817.7907714639</v>
+        <v>2589079.0136633874</v>
       </c>
       <c r="I14" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3576156.5657521901</v>
+        <v>3565860.5591328228</v>
       </c>
       <c r="J14" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2436422.730082273</v>
+        <v>2432272.0951076876</v>
       </c>
       <c r="K14" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>638604.0745326943</v>
+        <v>635380.58714121324</v>
       </c>
       <c r="L14" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>638604.0745326943</v>
+        <v>635380.58714121324</v>
       </c>
       <c r="M14" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>268098.89551725221</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N14" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4719675.1207015738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4691622.4837633371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B15" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5975643.1644014055</v>
+        <v>5931145.8108058982</v>
       </c>
       <c r="C15" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>967804.40694439784</v>
+        <v>963018.75542802387</v>
       </c>
       <c r="D15" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5255998.6227015769</v>
+        <v>5227011.3383918172</v>
       </c>
       <c r="E15" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2495700.5927638263</v>
+        <v>2481352.2925700801</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -20306,52 +21115,52 @@
       </c>
       <c r="H15" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2589079.0136633874</v>
+        <v>2547922.3752675196</v>
       </c>
       <c r="I15" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3565860.5591328228</v>
+        <v>3555561.4442966296</v>
       </c>
       <c r="J15" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2432272.0951076876</v>
+        <v>2428121.4601331009</v>
       </c>
       <c r="K15" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>635380.58714121324</v>
+        <v>631933.48429956823</v>
       </c>
       <c r="L15" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>635380.58714121324</v>
+        <v>631933.48429956823</v>
       </c>
       <c r="M15" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>266306.88575981645</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N15" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4691622.4837633371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4663569.8468251023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B16" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5931145.8108058982</v>
+        <v>5891250.3115733042</v>
       </c>
       <c r="C16" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>963018.75542802387</v>
+        <v>958678.11811029026</v>
       </c>
       <c r="D16" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5227011.3383918172</v>
+        <v>5198021.6648252821</v>
       </c>
       <c r="E16" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2481352.2925700801</v>
+        <v>2467010.4343437897</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -20361,52 +21170,52 @@
       </c>
       <c r="H16" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2547922.3752675196</v>
+        <v>2540302.6624595826</v>
       </c>
       <c r="I16" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3555561.4442966296</v>
+        <v>3545260.5056957193</v>
       </c>
       <c r="J16" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2428121.4601331009</v>
+        <v>2423970.8251585141</v>
       </c>
       <c r="K16" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>631933.48429956823</v>
+        <v>628837.96148214454</v>
       </c>
       <c r="L16" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>631933.48429956823</v>
+        <v>628837.96148214454</v>
       </c>
       <c r="M16" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>264323.8437115284</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N16" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4663569.8468251023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4649824.0547253666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B17" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5891250.3115733042</v>
+        <v>5857306.4326645313</v>
       </c>
       <c r="C17" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>958678.11811029026</v>
+        <v>955224.36670141632</v>
       </c>
       <c r="D17" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5198021.6648252821</v>
+        <v>5169038.1338238697</v>
       </c>
       <c r="E17" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2467010.4343437897</v>
+        <v>2452668.5761175007</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -20416,52 +21225,52 @@
       </c>
       <c r="H17" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2540302.6624595826</v>
+        <v>2533139.1408923659</v>
       </c>
       <c r="I17" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3545260.5056957193</v>
+        <v>3534963.6997064035</v>
       </c>
       <c r="J17" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2423970.8251585141</v>
+        <v>2419820.1901839278</v>
       </c>
       <c r="K17" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>628837.96148214454</v>
+        <v>626443.21127413108</v>
       </c>
       <c r="L17" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>628837.96148214454</v>
+        <v>626443.21127413108</v>
       </c>
       <c r="M17" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>262545.88511122944</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N17" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4649824.0547253666</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4636078.2626256328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B18" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5857306.4326645313</v>
+        <v>5815475.4053020934</v>
       </c>
       <c r="C18" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>955224.36670141632</v>
+        <v>952154.54539908445</v>
       </c>
       <c r="D18" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5169038.1338238697</v>
+        <v>5140053.2684648177</v>
       </c>
       <c r="E18" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2452668.5761175007</v>
+        <v>2438333.1242395733</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -20471,52 +21280,52 @@
       </c>
       <c r="H18" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2533139.1408923659</v>
+        <v>2526383.5767237623</v>
       </c>
       <c r="I18" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3534963.6997064035</v>
+        <v>3524666.5743593997</v>
       </c>
       <c r="J18" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2419820.1901839278</v>
+        <v>2415669.5552093415</v>
       </c>
       <c r="K18" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>626443.21127413108</v>
+        <v>624351.68212233088</v>
       </c>
       <c r="L18" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>626443.21127413108</v>
+        <v>624351.68212233088</v>
       </c>
       <c r="M18" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>261033.16280936002</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N18" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4636078.2626256328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4622332.4705258971</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B19" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5815475.4053020934</v>
+        <v>5778548.2651794432</v>
       </c>
       <c r="C19" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>952154.54539908445</v>
+        <v>949040.14822342538</v>
       </c>
       <c r="D19" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5140053.2684648177</v>
+        <v>5111067.2893267591</v>
       </c>
       <c r="E19" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2438333.1242395733</v>
+        <v>2423997.6723616458</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -20526,52 +21335,52 @@
       </c>
       <c r="H19" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2526383.5767237623</v>
+        <v>2519994.9577643387</v>
       </c>
       <c r="I19" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3524666.5743593997</v>
+        <v>3514367.8852897156</v>
       </c>
       <c r="J19" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2415669.5552093415</v>
+        <v>2411518.9202347547</v>
       </c>
       <c r="K19" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>624351.68212233088</v>
+        <v>622225.02496427251</v>
       </c>
       <c r="L19" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>624351.68212233088</v>
+        <v>622225.02496427251</v>
       </c>
       <c r="M19" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>259168.94663738576</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N19" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4622332.4705258971</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4608586.6784261642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B20" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5778548.2651794432</v>
+        <v>5743280.5529280286</v>
       </c>
       <c r="C20" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>949040.14822342538</v>
+        <v>945545.95793122007</v>
       </c>
       <c r="D20" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5111067.2893267591</v>
+        <v>5082080.6463448843</v>
       </c>
       <c r="E20" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2423997.6723616458</v>
+        <v>2409668.5963014285</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -20581,52 +21390,52 @@
       </c>
       <c r="H20" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2519994.9577643387</v>
+        <v>2513938.1192024327</v>
       </c>
       <c r="I20" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3514367.8852897156</v>
+        <v>3504069.057656019</v>
       </c>
       <c r="J20" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2411518.9202347547</v>
+        <v>2407368.2852601679</v>
       </c>
       <c r="K20" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>622225.02496427251</v>
+        <v>619798.28107551462</v>
       </c>
       <c r="L20" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>622225.02496427251</v>
+        <v>619798.28107551462</v>
       </c>
       <c r="M20" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>257523.27412724274</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N20" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4608586.6784261642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4594840.8863264266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B21" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5743280.5529280286</v>
+        <v>5709234.4860168453</v>
       </c>
       <c r="C21" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>945545.95793122007</v>
+        <v>942028.09621403518</v>
       </c>
       <c r="D21" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5082080.6463448843</v>
+        <v>5053093.0828641774</v>
       </c>
       <c r="E21" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2409668.5963014285</v>
+        <v>2404999.5802314463</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -20636,52 +21445,52 @@
       </c>
       <c r="H21" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2513938.1192024327</v>
+        <v>2508182.6815949809</v>
       </c>
       <c r="I21" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3504069.057656019</v>
+        <v>3493769.4323484274</v>
       </c>
       <c r="J21" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2407368.2852601679</v>
+        <v>2403217.6502855811</v>
       </c>
       <c r="K21" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>619798.28107551462</v>
+        <v>617352.84511806886</v>
       </c>
       <c r="L21" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>619798.28107551462</v>
+        <v>617352.84511806886</v>
       </c>
       <c r="M21" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>255951.55467225611</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N21" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4594840.8863264266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4581095.0942266928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B22" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5709234.4860168453</v>
+        <v>5669334.8608558737</v>
       </c>
       <c r="C22" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>942028.09621403518</v>
+        <v>938993.19908039412</v>
       </c>
       <c r="D22" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5053093.0828641774</v>
+        <v>5024108.3053758759</v>
       </c>
       <c r="E22" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2404999.5802314463</v>
+        <v>2400336.9069043021</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -20691,52 +21500,52 @@
       </c>
       <c r="H22" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2508182.6815949809</v>
+        <v>2502702.2196876826</v>
       </c>
       <c r="I22" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3493769.4323484274</v>
+        <v>3483472.0777434604</v>
       </c>
       <c r="J22" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2403217.6502855811</v>
+        <v>2399067.0153109948</v>
       </c>
       <c r="K22" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>617352.84511806886</v>
+        <v>615288.96325080341</v>
       </c>
       <c r="L22" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>617352.84511806886</v>
+        <v>615288.96325080341</v>
       </c>
       <c r="M22" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>254434.27832190439</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N22" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4581095.0942266928</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4567349.3021269571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B23" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5669334.8608558737</v>
+        <v>5636189.8184180791</v>
       </c>
       <c r="C23" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>938993.19908039412</v>
+        <v>935288.98986486392</v>
       </c>
       <c r="D23" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5024108.3053758759</v>
+        <v>4995121.4448840227</v>
       </c>
       <c r="E23" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2400336.9069043021</v>
+        <v>2395674.2335771583</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -20746,52 +21555,52 @@
       </c>
       <c r="H23" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2502702.2196876826</v>
+        <v>2497473.6043636785</v>
       </c>
       <c r="I23" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3483472.0777434604</v>
+        <v>3473173.1132751969</v>
       </c>
       <c r="J23" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2399067.0153109948</v>
+        <v>2394916.380336408</v>
       </c>
       <c r="K23" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>615288.96325080341</v>
+        <v>612696.37328382744</v>
       </c>
       <c r="L23" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>615288.96325080341</v>
+        <v>612696.37328382744</v>
       </c>
       <c r="M23" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>252656.13584798592</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N23" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4567349.3021269571</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4553603.5100272223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B24" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5636189.8184180791</v>
+        <v>5599204.4953773422</v>
       </c>
       <c r="C24" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>935288.98986486392</v>
+        <v>932249.59032996523</v>
       </c>
       <c r="D24" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4995121.4448840227</v>
+        <v>4966137.7293672916</v>
       </c>
       <c r="E24" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2395674.2335771583</v>
+        <v>2391017.8724622009</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -20801,52 +21610,52 @@
       </c>
       <c r="H24" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2497473.6043636785</v>
+        <v>2492476.4761637938</v>
       </c>
       <c r="I24" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3473173.1132751969</v>
+        <v>3462876.0542458124</v>
       </c>
       <c r="J24" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2394916.380336408</v>
+        <v>2390765.7453618222</v>
       </c>
       <c r="K24" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>612696.37328382744</v>
+        <v>610628.85218188493</v>
       </c>
       <c r="L24" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>612696.37328382744</v>
+        <v>610628.85218188493</v>
       </c>
       <c r="M24" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>251179.01400734967</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N24" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4553603.5100272223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4539857.7179274866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B25" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5599204.4953773422</v>
+        <v>5564281.2962552141</v>
       </c>
       <c r="C25" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>932249.59032996523</v>
+        <v>928767.96055464249</v>
       </c>
       <c r="D25" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4966137.7293672916</v>
+        <v>4937147.9396726415</v>
       </c>
       <c r="E25" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2391017.8724622009</v>
+        <v>2386361.511347244</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -20856,52 +21665,52 @@
       </c>
       <c r="H25" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2492476.4761637938</v>
+        <v>2487692.8200126076</v>
       </c>
       <c r="I25" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3462876.0542458124</v>
+        <v>3452575.4000811679</v>
       </c>
       <c r="J25" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2390765.7453618222</v>
+        <v>2386615.1103872359</v>
       </c>
       <c r="K25" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>610628.85218188493</v>
+        <v>608212.14930633293</v>
       </c>
       <c r="L25" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>610628.85218188493</v>
+        <v>608212.14930633293</v>
       </c>
       <c r="M25" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>249530.74855259905</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N25" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4539857.7179274866</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4526111.92582775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B26" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5564281.2962552141</v>
+        <v>5527594.8448001463</v>
       </c>
       <c r="C26" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>928767.96055464249</v>
+        <v>925342.88106730429</v>
       </c>
       <c r="D26" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4937147.9396726415</v>
+        <v>4908161.5998007255</v>
       </c>
       <c r="E26" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2386361.511347244</v>
+        <v>2381711.4268253813</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -20911,52 +21720,52 @@
       </c>
       <c r="H26" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2487692.8200126076</v>
+        <v>2483106.618653201</v>
       </c>
       <c r="I26" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3452575.4000811679</v>
+        <v>3442276.7956596231</v>
       </c>
       <c r="J26" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2386615.1103872359</v>
+        <v>2382464.4754126491</v>
       </c>
       <c r="K26" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>608212.14930633293</v>
+        <v>605840.01580700953</v>
       </c>
       <c r="L26" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>608212.14930633293</v>
+        <v>605840.01580700953</v>
       </c>
       <c r="M26" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>247974.38246059604</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N26" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4526111.92582775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4512811.369234412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B27" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5527594.8448001463</v>
+        <v>5490908.3933450775</v>
       </c>
       <c r="C27" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>925342.88106730429</v>
+        <v>921917.80157996633</v>
       </c>
       <c r="D27" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4908161.5998007255</v>
+        <v>4879175.2599288067</v>
       </c>
       <c r="E27" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2381711.4268253813</v>
+        <v>2377061.3423035168</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -20966,52 +21775,52 @@
       </c>
       <c r="H27" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2483106.618653201</v>
+        <v>2478703.5679218224</v>
       </c>
       <c r="I27" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3442276.7956596231</v>
+        <v>3431978.191238076</v>
       </c>
       <c r="J27" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2382464.4754126491</v>
+        <v>2378313.8404380623</v>
       </c>
       <c r="K27" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>605840.01580700953</v>
+        <v>603467.88230768603</v>
       </c>
       <c r="L27" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>605840.01580700953</v>
+        <v>603467.88230768603</v>
       </c>
       <c r="M27" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>246339.4363355028</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N27" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4512811.369234412</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4499510.812641073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B28" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5490908.3933450775</v>
+        <v>5454221.9418900087</v>
       </c>
       <c r="C28" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>921917.80157996633</v>
+        <v>918492.72209262801</v>
       </c>
       <c r="D28" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4879175.2599288067</v>
+        <v>4850188.9200568907</v>
       </c>
       <c r="E28" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2377061.3423035168</v>
+        <v>2372417.5038440963</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -21021,52 +21830,52 @@
       </c>
       <c r="H28" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2478703.5679218224</v>
+        <v>2474470.8410664471</v>
       </c>
       <c r="I28" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3431978.191238076</v>
+        <v>3421679.5868165302</v>
       </c>
       <c r="J28" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2378313.8404380623</v>
+        <v>2374163.205463476</v>
       </c>
       <c r="K28" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>603467.88230768603</v>
+        <v>601095.74880836229</v>
       </c>
       <c r="L28" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>603467.88230768603</v>
+        <v>601095.74880836229</v>
       </c>
       <c r="M28" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>244704.49021040957</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N28" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4499510.812641073</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4486210.2560477322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B29" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5454221.9418900087</v>
+        <v>5417535.49043494</v>
       </c>
       <c r="C29" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>918492.72209262801</v>
+        <v>915067.6426052897</v>
       </c>
       <c r="D29" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4850188.9200568907</v>
+        <v>4821202.5801849719</v>
       </c>
       <c r="E29" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2372417.5038440963</v>
+        <v>2367773.6653846749</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -21076,52 +21885,52 @@
       </c>
       <c r="H29" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2474470.8410664471</v>
+        <v>2470396.8922987743</v>
       </c>
       <c r="I29" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3421679.5868165302</v>
+        <v>3411380.982394984</v>
       </c>
       <c r="J29" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2374163.205463476</v>
+        <v>2370012.5704888902</v>
       </c>
       <c r="K29" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>601095.74880836229</v>
+        <v>598723.6153090389</v>
       </c>
       <c r="L29" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>601095.74880836229</v>
+        <v>598723.6153090389</v>
       </c>
       <c r="M29" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>243069.54408531633</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N29" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4486210.2560477322</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4472909.6994543942</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B30" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5417535.49043494</v>
+        <v>5380849.0389798712</v>
       </c>
       <c r="C30" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>915067.6426052897</v>
+        <v>911642.56311795185</v>
       </c>
       <c r="D30" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4821202.5801849719</v>
+        <v>4792216.240313055</v>
       </c>
       <c r="E30" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2367773.6653846749</v>
+        <v>2363136.0424570451</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -21131,52 +21940,52 @@
       </c>
       <c r="H30" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2470396.8922987743</v>
+        <v>2466471.2919877465</v>
       </c>
       <c r="I30" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3411380.982394984</v>
+        <v>3401082.3779734387</v>
       </c>
       <c r="J30" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2370012.5704888902</v>
+        <v>2365861.9355143039</v>
       </c>
       <c r="K30" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>598723.6153090389</v>
+        <v>596351.48180971527</v>
       </c>
       <c r="L30" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>598723.6153090389</v>
+        <v>596351.48180971527</v>
       </c>
       <c r="M30" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>241434.59796022309</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N30" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4472909.6994543942</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4459609.1428610543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B31" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5380849.0389798712</v>
+        <v>5344162.5875248024</v>
       </c>
       <c r="C31" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>911642.56311795185</v>
+        <v>908217.48363061354</v>
       </c>
       <c r="D31" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4792216.240313055</v>
+        <v>4763229.9004411371</v>
       </c>
       <c r="E31" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2363136.0424570451</v>
+        <v>2358498.4195294152</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -21186,52 +21995,52 @@
       </c>
       <c r="H31" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2466471.2919877465</v>
+        <v>2462684.5875619091</v>
       </c>
       <c r="I31" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3401082.3779734387</v>
+        <v>3390783.7735518916</v>
       </c>
       <c r="J31" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2365861.9355143039</v>
+        <v>2361711.3005397161</v>
       </c>
       <c r="K31" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>596351.48180971527</v>
+        <v>593979.34831039177</v>
       </c>
       <c r="L31" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>596351.48180971527</v>
+        <v>593979.34831039177</v>
       </c>
       <c r="M31" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>239799.65183512986</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N31" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4459609.1428610543</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4446308.5862677116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B32" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5344162.5875248024</v>
+        <v>5307476.1360697346</v>
       </c>
       <c r="C32" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>908217.48363061354</v>
+        <v>904792.40414327534</v>
       </c>
       <c r="D32" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4763229.9004411371</v>
+        <v>4734243.5605692193</v>
       </c>
       <c r="E32" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2358498.4195294152</v>
+        <v>2353866.9765144815</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -21241,52 +22050,52 @@
       </c>
       <c r="H32" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2462684.5875619091</v>
+        <v>2459028.1854488421</v>
       </c>
       <c r="I32" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3390783.7735518916</v>
+        <v>3380485.1691303463</v>
       </c>
       <c r="J32" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2361711.3005397161</v>
+        <v>2357560.6655651294</v>
       </c>
       <c r="K32" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>593979.34831039177</v>
+        <v>591607.21481106826</v>
       </c>
       <c r="L32" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>593979.34831039177</v>
+        <v>591607.21481106826</v>
       </c>
       <c r="M32" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>238164.70571003659</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N32" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4446308.5862677116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4433008.0296743726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B33" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5307476.1360697346</v>
+        <v>5270789.6846146658</v>
       </c>
       <c r="C33" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>904792.40414327534</v>
+        <v>901367.32465593738</v>
       </c>
       <c r="D33" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4734243.5605692193</v>
+        <v>4705257.2206973005</v>
       </c>
       <c r="E33" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2353866.9765144815</v>
+        <v>2349235.5334995496</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -21296,52 +22105,52 @@
       </c>
       <c r="H33" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2459028.1854488421</v>
+        <v>2455494.2503403826</v>
       </c>
       <c r="I33" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3380485.1691303463</v>
+        <v>3370186.5647087996</v>
       </c>
       <c r="J33" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2357560.6655651294</v>
+        <v>2353410.0305905431</v>
       </c>
       <c r="K33" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>591607.21481106826</v>
+        <v>589235.08131174475</v>
       </c>
       <c r="L33" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>591607.21481106826</v>
+        <v>589235.08131174475</v>
       </c>
       <c r="M33" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>236529.75958494339</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N33" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4433008.0296743726</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4419707.4730810346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B34" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5270789.6846146658</v>
+        <v>5234103.233159597</v>
       </c>
       <c r="C34" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>901367.32465593738</v>
+        <v>897942.24516859907</v>
       </c>
       <c r="D34" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4705257.2206973005</v>
+        <v>4676270.8808253845</v>
       </c>
       <c r="E34" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2349235.5334995496</v>
+        <v>2344610.2424108833</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -21351,52 +22160,52 @@
       </c>
       <c r="H34" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2455494.2503403826</v>
+        <v>2452075.6188164558</v>
       </c>
       <c r="I34" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3370186.5647087996</v>
+        <v>3359887.9602872529</v>
       </c>
       <c r="J34" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2353410.0305905431</v>
+        <v>2349259.3956159572</v>
       </c>
       <c r="K34" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>589235.08131174475</v>
+        <v>586862.94781242101</v>
       </c>
       <c r="L34" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>589235.08131174475</v>
+        <v>586862.94781242101</v>
       </c>
       <c r="M34" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>234894.81345985012</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N34" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4419707.4730810346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4406406.9164876947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B35" s="4">
         <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5234103.233159597</v>
+        <v>5197416.7817045283</v>
       </c>
       <c r="C35" s="4">
         <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>897942.24516859907</v>
+        <v>894517.16568126087</v>
       </c>
       <c r="D35" s="4">
         <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4676270.8808253845</v>
+        <v>4647284.5409534667</v>
       </c>
       <c r="E35" s="4">
         <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2344610.2424108833</v>
+        <v>2339984.9513222175</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -21406,126 +22215,71 @@
       </c>
       <c r="H35" s="4">
         <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2452075.6188164558</v>
+        <v>2448765.7249359181</v>
       </c>
       <c r="I35" s="4">
         <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3359887.9602872529</v>
+        <v>3349589.3558657072</v>
       </c>
       <c r="J35" s="4">
         <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2349259.3956159572</v>
+        <v>2345108.7606413709</v>
       </c>
       <c r="K35" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>586862.94781242101</v>
+        <v>584490.81431309762</v>
       </c>
       <c r="L35" s="4">
         <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>586862.94781242101</v>
+        <v>584490.81431309762</v>
       </c>
       <c r="M35" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>233259.86733475685</v>
+        <f>'Coal-to-gas costs'!$F$10*'Coal-to-gas costs'!$B$21*1000</f>
+        <v>218250</v>
       </c>
       <c r="N35" s="4">
         <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
-        <v>4406406.9164876947</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B36" s="4">
-        <f>('EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>5197416.7817045283</v>
-      </c>
-      <c r="C36" s="4">
-        <f>('EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>894517.16568126087</v>
-      </c>
-      <c r="D36" s="4">
-        <f>('EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>4647284.5409534667</v>
-      </c>
-      <c r="E36" s="4">
-        <f>('EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2339984.9513222175</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <f>('EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2448765.7249359181</v>
-      </c>
-      <c r="I36" s="4">
-        <f>('EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>3349589.3558657072</v>
-      </c>
-      <c r="J36" s="4">
-        <f>('EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>2345108.7606413709</v>
-      </c>
-      <c r="K36" s="4">
-        <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>584490.81431309762</v>
-      </c>
-      <c r="L36" s="4">
-        <f>('EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$64)*(USD_to_CAN)</f>
-        <v>584490.81431309762</v>
-      </c>
-      <c r="M36" s="4">
-        <f>226*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$72</f>
-        <v>231624.92120966359</v>
-      </c>
-      <c r="N36" s="4">
-        <f>(AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$66)*(USD_to_CAN)</f>
         <v>4393106.3598943548</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="B37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B39" s="16"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14">
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="1:14">
       <c r="B40" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14">
       <c r="B41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14">
       <c r="B42" s="12"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14">
       <c r="B43" s="12"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14">
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14">
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14">
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14">
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14">
       <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B49" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
